--- a/data-raw/metadata/release_fish_metadata.xlsx
+++ b/data-raw/metadata/release_fish_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EF0734-038B-BA4F-8190-12B1F8FECE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25874A-8449-0B46-92B1-3177826A8A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
     <t>millimeter</t>
   </si>
   <si>
-    <t>Foreign key to the CAMP ProjectDescription table. For Knight's Landing RST Program, projectDescriptionID = 9.</t>
+    <t>Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 9.</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data-raw/metadata/release_fish_metadata.xlsx
+++ b/data-raw/metadata/release_fish_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\jpe-knights-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425B3840-744C-401C-A43E-4E8EBEEA0AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9F0B6D-3BC2-4E96-93C5-944A148C8DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="2050" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="2050" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>projectDescriptionID</t>
-  </si>
-  <si>
-    <t>nominal</t>
   </si>
   <si>
     <t>release_fish</t>
@@ -440,9 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -521,16 +518,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -556,19 +553,19 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -594,19 +591,19 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -632,28 +629,28 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="3"/>
@@ -28370,7 +28367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -28384,13 +28381,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -28421,7 +28418,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/release_fish_metadata.xlsx
+++ b/data-raw/metadata/release_fish_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\jpe-knights-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9F0B6D-3BC2-4E96-93C5-944A148C8DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0320BB0-9F5F-44A9-A340-10CDE5B3BBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="2050" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
